--- a/web-scraping/Selenium4_4_imdb_director_data/director_data.xlsx
+++ b/web-scraping/Selenium4_4_imdb_director_data/director_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,625 +453,1046 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergio Leone</t>
+          <t>Frank Borzage</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5′ 8″</t>
+          <t>5′ 10½″</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Oliver Stone</t>
+          <t>James L. Brooks</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6′</t>
+          <t>6′ 1″</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sidney Lumet</t>
+          <t>Joseph L. Mankiewicz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5′ 5″</t>
+          <t>5′ 10″</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Curtis Hanson</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6′ 1″</t>
-        </is>
+          <t>George Roy Hill</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Penny Marshall</t>
+          <t>Mel Gibson</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5′ 6″</t>
+          <t>5′ 9¾″</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>John Hughes</t>
+          <t>John G. Avildsen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6′ 1″</t>
+          <t>5′ 5″</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Peter Jackson</t>
+          <t>Martin Scorsese</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5′ 4¾″</t>
+          <t>5′ 3″</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Norman Jewison</t>
+          <t>Milos Forman</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5′ 8″</t>
+          <t>5′ 10″</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Emile Ardolino</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
+          <t>Steven Soderbergh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6′</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Victor Fleming</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>6′ 1″</t>
-        </is>
+          <t>Jane Campion</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>James Cameron</t>
+          <t>Barry Levinson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6′ 2″</t>
+          <t>5′ 11″</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kevin Costner</t>
+          <t>Danny Boyle</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6′ 1″</t>
+          <t>5′ 11½″</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joel Coen</t>
+          <t>Ang Lee</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6′</t>
+          <t>5′ 9″</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Milos Forman</t>
+          <t>Elia Kazan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5′ 10″</t>
+          <t>5′ 8″</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Michael Cimino</t>
+          <t>Carol Reed</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5′ 5″</t>
+          <t>6′ 2″</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>David Lean</t>
+          <t>George Stevens</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6′ 1″</t>
+          <t>5′ 11″</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Robert Zemeckis</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>6′</t>
-        </is>
+          <t>Jerome Robbins</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Amy Heckerling</t>
+          <t>Mike Nichols</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5′ 3″</t>
+          <t>5′ 11″</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Francis Ford Coppola</t>
+          <t>Alejandro G. Iñárritu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5′ 11¾″</t>
+          <t>5′ 10″</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Frank Darabont</t>
+          <t>Guillermo del Toro</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6′</t>
+          <t>5′ 10″</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Steven Spielberg</t>
+          <t>John Huston</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5′ 7¾″</t>
+          <t>6′ 1½″</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>William Friedkin</t>
+          <t>Bob Fosse</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6′</t>
+          <t>5′ 8″</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ron Howard</t>
+          <t>Robert Zemeckis</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5′ 8½″</t>
+          <t>6′</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Stanley Kubrick</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>5′ 6½″</t>
-        </is>
+          <t>Sean Baker</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Christopher Nolan</t>
+          <t>Bong Joon Ho</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5′ 11¼″</t>
+          <t>5′ 11¾″</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Roman Polanski</t>
+          <t>Damien Chazelle</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5′ 3″</t>
+          <t>5′ 9½″</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ang Lee</t>
+          <t>Kevin Costner</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5′ 9″</t>
+          <t>6′ 1″</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>John G. Avildsen</t>
+          <t>James Cameron</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5′ 5″</t>
+          <t>6′ 2″</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Quentin Tarantino</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>6′ 1″</t>
-        </is>
+          <t>Daniel Kwan</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Steve McQueen</t>
+          <t>William Wyler</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5′ 9½″</t>
+          <t>5′ 8″</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>David Fincher</t>
+          <t>David Lean</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6′ 0½″</t>
+          <t>6′ 1″</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jonathan Demme</t>
+          <t>Christopher Nolan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5′ 10″</t>
+          <t>5′ 11¼″</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>David Anspaugh</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
+          <t>Clint Eastwood</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>6′ 4″</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spike Lee</t>
+          <t>Anthony Minghella</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5′ 7″</t>
+          <t>5′ 8½″</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tony Scott</t>
+          <t>Robert Redford</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5′ 6½″</t>
+          <t>5′ 10½″</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ridley Scott</t>
+          <t>Lewis Milestone</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5′ 8½″</t>
+          <t>5′ 7½″</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ethan Coen</t>
+          <t>Steven Spielberg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5′ 8″</t>
+          <t>5′ 7¾″</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Martin Scorsese</t>
+          <t>Ethan Coen</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5′ 3″</t>
+          <t>5′ 8″</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Clint Eastwood</t>
+          <t>William Friedkin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6′ 4″</t>
+          <t>6′</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Roger Allers</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
+          <t>Michael Curtiz</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5′ 9″</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Michael Curtiz</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>5′ 9″</t>
-        </is>
+          <t>Delbert Mann</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>Oliver Stone</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>6′</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fred Zinnemann</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5′ 6½″</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Frank Lloyd</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5′ 11½″</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>Robert Wise</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>5′ 10″</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C46" t="n">
         <v>178</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sam Mendes</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5′ 9″</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Roman Polanski</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5′ 3″</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Alfonso Cuarón</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6′</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chloé Zhao</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sydney Pollack</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5′ 11½″</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Norman Taurog</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5′ 8″</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Leo McCarey</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5′ 9¼″</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jonathan Demme</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5′ 10″</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Francis Ford Coppola</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5′ 11¾″</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ron Howard</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5′ 8½″</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Richard Attenborough</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5′ 7″</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>John Schlesinger</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Tom Hooper</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6′ 3″</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Franklin J. Schaffner</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michael Cimino</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5′ 5″</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Victor Fleming</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6′ 1″</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Bernardo Bertolucci</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>5′ 10″</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Billy Wilder</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>5′ 9½″</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5′ 4¾″</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michel Hazanavicius</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>6′</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Warren Beatty</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>6′ 1″</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Frank Capra</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>5′ 7″</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>George Cukor</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>5′ 8″</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>John Ford</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>6′</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Robert Benton</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Kathryn Bigelow</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>5′ 11¾″</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
